--- a/data/financial_report_546914209.xlsx
+++ b/data/financial_report_546914209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Источник</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Категория</t>
         </is>
       </c>
@@ -458,34 +463,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-08-2024</t>
+          <t>11-08-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Расход</t>
+          <t>Приход</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-4855</v>
+        <v>55666</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>зп</t>
-        </is>
-      </c>
+          <t>Зарплата</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11-08-2024</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Итого</t>
+          <t>Расход</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4855</v>
+        <v>-654645</v>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/financial_report_546914209.xlsx
+++ b/data/financial_report_546914209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>Источник</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Категория</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,33 +467,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55666</v>
+        <v>15000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Зарплата</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>11-08-2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Расход</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-654645</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Транспорт</t>
+          <t>Что то не понятное</t>
         </is>
       </c>
     </row>

--- a/data/financial_report_546914209.xlsx
+++ b/data/financial_report_546914209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Источник</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,6 +477,49 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>Что то не понятное</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11-08-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Расход</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11-08-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Расход</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/refresh</t>
         </is>
       </c>
     </row>

--- a/data/financial_report_546914209.xlsx
+++ b/data/financial_report_546914209.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-08-2024</t>
+          <t>12-08-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,40 +472,36 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15000</v>
+        <v>12999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Что то не понятное</t>
+          <t>Зарплата</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>11-08-2024</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Расход</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1200</v>
+        <v>-43431</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Продукты</t>
+          <t>Транспорт</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-08-2024</t>
+          <t>12-08-2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,12 +510,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1000</v>
+        <v>-32334</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/refresh</t>
+          <t>Транспорт</t>
         </is>
       </c>
     </row>

--- a/data/financial_report_546914209.xlsx
+++ b/data/financial_report_546914209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12999</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Зарплата</t>
+          <t>Ренген 👁️</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Расход</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43431</v>
+        <v>-54645</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Транспорт</t>
+          <t>Отмена</t>
         </is>
       </c>
     </row>
@@ -506,18 +510,81 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Расход</t>
+          <t>Приход</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-32334</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Транспорт</t>
-        </is>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Отмена</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6565</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Отмена</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4643643</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Отмена</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4545</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Отмена</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/financial_report_546914209.xlsx
+++ b/data/financial_report_546914209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,174 @@
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7676</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ляля</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3434</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11kfjd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>45435</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3243</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>32434</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Продажи</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>324324</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34324</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>34444</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>hhth</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4545</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Подарки</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>456546</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23ппп</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
